--- a/questions9.xlsx
+++ b/questions9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289141A-CE96-4FA2-B331-06BA9D2B2973}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A68F45-7C40-4D53-8C7B-FC22BDBA94ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,8 +1143,8 @@
   </sheetPr>
   <dimension ref="A1:AC164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1157,14 +1157,13 @@
     <col min="6" max="6" width="31.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" style="2" customWidth="1"/>
     <col min="8" max="9" width="25.42578125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="17.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="17.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="34.42578125" style="10" customWidth="1"/>
     <col min="16" max="16" width="32.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="33" style="2" customWidth="1"/>
     <col min="18" max="18" width="26" style="2" customWidth="1"/>
-    <col min="19" max="20" width="33" style="2" customWidth="1"/>
-    <col min="21" max="26" width="33" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="26" width="33" style="2" customWidth="1"/>
     <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
     <col min="28" max="16384" width="12.5703125" style="2"/>
   </cols>

--- a/questions9.xlsx
+++ b/questions9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A68F45-7C40-4D53-8C7B-FC22BDBA94ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7EA5E2-C042-4834-B63B-5C70FC7E379B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="272">
   <si>
     <t>Question</t>
   </si>
@@ -824,6 +824,18 @@
   </si>
   <si>
     <t>Для закріплення мотузки на даху будинку</t>
+  </si>
+  <si>
+    <t>2 відсотки</t>
+  </si>
+  <si>
+    <t>8 відсотків</t>
+  </si>
+  <si>
+    <t>10 відсотків</t>
+  </si>
+  <si>
+    <t>5 відсотків</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:AC164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1367,20 +1379,20 @@
       <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0.05</v>
+      <c r="C5" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>30</v>
